--- a/biology/Médecine/Domenico_Carbone/Domenico_Carbone.xlsx
+++ b/biology/Médecine/Domenico_Carbone/Domenico_Carbone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Domenico Carbone (né le 16 juillet 1823 à Carbonara Scrivia, au Piémont et mort à Florence le 20 mars 1883) est un médecin, un homme politique et un poète italien du XIXe siècle.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Domenico Carbone obtient à dix-huit ans, en 1841 une inscription gratuite à la faculté de médecine de Turin. Elle lui est offerte par le Collegio delle Provincie (Collège des Provinces).
 Durant ses études de médecine le jeune Domenico se lie d'amitié avec Bartolomeo Casalis, Felice Govean, Quintino Sella, Giambattista Bottero et Michele Lessona, dont il épousera la sœur Camilla.
-Il est reçu diplômé en médecine le 6 août 1847. À la même époque il aide son ami Michele Lessona à fuir jusqu'en Égypte avec Maria Ghignetti et entretient des relations épistolaires avec le fuyard[1].
+Il est reçu diplômé en médecine le 6 août 1847. À la même époque il aide son ami Michele Lessona à fuir jusqu'en Égypte avec Maria Ghignetti et entretient des relations épistolaires avec le fuyard.
 Carbone devient célèbre avec la ballade Il Re Tentenna où il se moque du roi Carlo Alberto de Sardaigne. Le succès de cette œuvre est apprécié négativement par le souverain et Carbone va prudemment choisir alors le chemin de l'exil pour se mettre à l'abri.
 Il revient à Turin en 1848 pour s'enrôler durant les évènements de 1848 au côté de Costantino Nigra dans la compagnie des bersaglieri étudiants de l'université de Turin.
 Après une brève période de pratique de la profession de médecin, Carbone va se consacrer à la réorganisation de l'enseignement.
@@ -554,7 +568,9 @@
           <t>Extraits d'œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il Re Tentenna :
 In diebus illis c'era in Italia
@@ -602,7 +618,9 @@
           <t>Autres ouvrages publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sono Italiano: canto popolare (Je suis Italien, chant populaire, poésie de Domenico Carbone, musique de Ermanno Picchi, Guidi, Florence, 1856)
 All’esercito italiano reduce di Crimea: canto (Rossi, Tortona, 1856)
